--- a/biology/Médecine/Adamantinome/Adamantinome.xlsx
+++ b/biology/Médecine/Adamantinome/Adamantinome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adamantinome (du mot grec adamantinos, signifiant « très dur ») est une tumeur maligne rare[1] du tissu osseux[2], se développant surtout chez l'homme et dans la diaphyse tibiale[3],[4].
-Elle se caractérise par la présence de cellules épithéliales malignes dans un stroma fibreux ou ostéofibreux[4].
-Les patients subissent typiquement un gonflement, avec ou sans douleur[2], âgés de la vingtaine ou de la trentaine, mais l'adamantinome peut survenir à tout âge. En guise de traitement, une ablation chirurgicale protège des récidives.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adamantinome (du mot grec adamantinos, signifiant « très dur ») est une tumeur maligne rare du tissu osseux, se développant surtout chez l'homme et dans la diaphyse tibiale,.
+Elle se caractérise par la présence de cellules épithéliales malignes dans un stroma fibreux ou ostéofibreux.
+Les patients subissent typiquement un gonflement, avec ou sans douleur, âgés de la vingtaine ou de la trentaine, mais l'adamantinome peut survenir à tout âge. En guise de traitement, une ablation chirurgicale protège des récidives.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'affection est pour la première décrite par Fischer en 1913[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'affection est pour la première décrite par Fischer en 1913,.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -593,16 +611,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Signes fonctionnels
-Examen clinique
-Examens complémentaires</t>
-        </is>
-      </c>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,10 +639,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
+          <t>Évolution et complications</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -651,36 +667,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Prévention</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Adamantinome</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adamantinome</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Prévention</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
